--- a/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_test.xlsx
+++ b/Data/Modeling Stage/Feature Selection/Nova_IMS_feature_selection_Date_threshold_33_no_test.xlsx
@@ -49,25 +49,22 @@
     <t>Feature</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Resources viewed</t>
   </si>
   <si>
     <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
   </si>
   <si>
     <t>Largest period of inactivity (h)</t>
@@ -79,7 +76,10 @@
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
@@ -88,46 +88,46 @@
     <t>Number of sessions</t>
   </si>
   <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Clicks per session</t>
   </si>
   <si>
-    <t>Links viewed</t>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
+    <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 10 (%)</t>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Number of days</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Discussions viewed</t>
@@ -136,16 +136,16 @@
     <t>Start of Session 9 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Quizzes started</t>
+    <t>Forum posts</t>
   </si>
   <si>
     <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
   </si>
   <si>
     <t>Submissions (% of course total)</t>
@@ -709,7 +709,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -837,13 +837,13 @@
         <v>19</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -977,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1038,22 +1038,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -1160,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
@@ -1189,7 +1189,7 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1198,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1352,25 +1352,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1679,7 +1679,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1839,16 +1839,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1912,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
@@ -1935,16 +1935,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -1994,21 +1994,21 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -2026,21 +2026,21 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2049,13 +2049,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2107,27 +2107,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2139,27 +2139,27 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2191,22 +2191,22 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -2255,22 +2255,22 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -2282,85 +2282,85 @@
         <v>1</v>
       </c>
       <c r="J20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -2378,21 +2378,21 @@
         <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2410,18 +2410,18 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
       </c>
       <c r="C25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -2442,15 +2442,15 @@
         <v>1</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -2465,24 +2465,24 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -2497,59 +2497,59 @@
         <v>0</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2593,13 +2593,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="b">
         <v>1</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2639,13 +2639,13 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -2671,13 +2671,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2730,12 +2730,12 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3039,10 +3039,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -3068,16 +3068,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3147,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3159,12 +3159,12 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3173,22 +3173,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -3196,16 +3196,16 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -3243,27 +3243,27 @@
         <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3327,19 +3327,19 @@
         <v>33</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3356,63 +3356,63 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="b">
         <v>1</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3455,16 +3455,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -3479,44 +3479,44 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -3531,27 +3531,27 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -3563,16 +3563,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -3592,19 +3592,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -3612,22 +3612,22 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -3639,12 +3639,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -3653,13 +3653,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -3676,7 +3676,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -3868,7 +3868,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -4041,7 +4041,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -4100,12 +4100,12 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -4146,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -4169,16 +4169,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -4233,16 +4233,16 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -4265,7 +4265,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -4292,24 +4292,24 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -4324,15 +4324,15 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -4341,19 +4341,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -4373,27 +4373,27 @@
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -4420,12 +4420,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -4469,19 +4469,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>5</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
@@ -4553,31 +4553,31 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
         <v>5</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -4617,10 +4617,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -4629,30 +4629,30 @@
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -4664,16 +4664,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>4</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -4713,13 +4713,13 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4740,24 +4740,24 @@
         <v>1</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
@@ -4772,12 +4772,12 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -4804,21 +4804,21 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -4841,16 +4841,16 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -4900,12 +4900,12 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -4932,18 +4932,18 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -4964,18 +4964,18 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
       </c>
       <c r="C34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -4996,18 +4996,18 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
